--- a/about.xlsx
+++ b/about.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Documents\Tecnico\Projecto_IAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24915" windowHeight="10515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Ecrã" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -149,14 +161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AM34"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:Z33"/>
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -512,6 +525,10 @@
     <col min="35" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
     <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
@@ -556,32 +573,32 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="5"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AC3" s="5"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -594,34 +611,34 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="5"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="5"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="AC4" s="5"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AE4" s="5"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="3"/>
@@ -632,31 +649,31 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="5"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -670,34 +687,34 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="5"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6" s="5"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="5"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="3"/>
@@ -708,31 +725,31 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -907,33 +924,33 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -945,32 +962,32 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -983,33 +1000,33 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -1021,33 +1038,33 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -1091,7 +1108,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1129,37 +1146,37 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>40</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AB18" s="5"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -1169,121 +1186,121 @@
       <c r="AI18" s="4"/>
       <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="5"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="5"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>48</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="5"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="5"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AC21" s="5"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>50</v>
       </c>
@@ -1320,8 +1337,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="XFD22" s="5"/>
+    </row>
+    <row r="23" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>54</v>
       </c>
@@ -1359,36 +1377,36 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>58</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -1397,35 +1415,35 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="U25" s="5"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="W25" s="5"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -1434,8 +1452,9 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="XFD25" s="5"/>
+    </row>
+    <row r="26" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>60</v>
       </c>
@@ -1443,28 +1462,28 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="AA26" s="5"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -1473,36 +1492,36 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>64</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -1511,7 +1530,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>68</v>
       </c>
@@ -1549,7 +1568,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1606,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>70</v>
       </c>
@@ -1625,7 +1644,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>74</v>
       </c>
@@ -1663,7 +1682,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39 16384:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>78</v>
       </c>
@@ -1742,6 +1761,9 @@
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AH34" s="3"/>
     </row>
+    <row r="1048576" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA1048576" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="8" orientation="portrait" r:id="rId1"/>
